--- a/downloaded_files/EECS102_Tutorial-35288.xlsx
+++ b/downloaded_files/EECS102_Tutorial-35288.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,6 +33,15 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
+    <x:t>1240015</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمد عبدالله شبل الشامى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Mohamed Abdullah Shebl</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240286</x:t>
   </x:si>
   <x:si>
@@ -51,15 +60,6 @@
     <x:t>Eyad Hossni Mohammed ElBakry</x:t>
   </x:si>
   <x:si>
-    <x:t>1240040</x:t>
-  </x:si>
-  <x:si>
-    <x:t>بيتر اشعياء شحاته فهمي يونان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Peter Asheiaa Shehata Fahmi Younan</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240217</x:t>
   </x:si>
   <x:si>
@@ -195,15 +195,6 @@
     <x:t>Omar Mohamed Gad Morshedy Omar</x:t>
   </x:si>
   <x:si>
-    <x:t>1240112</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر محمد كمال خيرى السيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar mohamed kamal</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240122</x:t>
   </x:si>
   <x:si>
@@ -231,15 +222,6 @@
     <x:t>Mohamed Ahmed</x:t>
   </x:si>
   <x:si>
-    <x:t>1240364</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمود احمد محمد كمال الدين منصور  بلاسى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahmoud Ahmed Mohammed Kamal Eldin</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240148</x:t>
   </x:si>
   <x:si>
@@ -292,6 +274,15 @@
   </x:si>
   <x:si>
     <x:t>Nour Mohamed Abdelhamed Abdelrahman Alroba</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240167</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف احمد السيد احمد الشلقاني</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef ahmed elsayed ahmed metwaley</x:t>
   </x:si>
   <x:si>
     <x:t>1240169</x:t>
@@ -434,7 +425,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -734,7 +725,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T33"/>
+  <x:dimension ref="A1:T32"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -825,7 +816,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45907.6658420486</x:v>
+        <x:v>45927.439949537</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -857,7 +848,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45914.5425302893</x:v>
+        <x:v>45907.6658420486</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -889,7 +880,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45914.6094861111</x:v>
+        <x:v>45914.5425302893</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1209,7 +1200,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45914.6358980671</x:v>
+        <x:v>45927.4153332176</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1401,7 +1392,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45914.5754740394</x:v>
+        <x:v>45907.6648360764</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1433,7 +1424,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6648360764</x:v>
+        <x:v>45907.6648425926</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1465,7 +1456,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6648425926</x:v>
+        <x:v>45914.5434844097</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1497,7 +1488,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45914.5434844097</x:v>
+        <x:v>45907.6646261227</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1529,7 +1520,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6673467245</x:v>
+        <x:v>45907.6658079861</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1561,7 +1552,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6646261227</x:v>
+        <x:v>45914.5376066319</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1593,7 +1584,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6658079861</x:v>
+        <x:v>45907.6654758102</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1625,7 +1616,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45914.5376066319</x:v>
+        <x:v>45914.6110670949</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1657,7 +1648,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6654758102</x:v>
+        <x:v>45914.6121292014</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1689,7 +1680,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45914.6110670949</x:v>
+        <x:v>45927.5052487269</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1721,7 +1712,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45914.6121292014</x:v>
+        <x:v>45914.5715863079</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1753,7 +1744,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45914.5715863079</x:v>
+        <x:v>45907.6646291667</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1785,7 +1776,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6646291667</x:v>
+        <x:v>45907.6703102199</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1802,38 +1793,6 @@
       <x:c r="R32" s="2" t="s"/>
       <x:c r="S32" s="2" t="s"/>
       <x:c r="T32" s="2" t="s"/>
-    </x:row>
-    <x:row r="33" spans="1:20">
-      <x:c r="A33" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B33" s="2" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="C33" s="2" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="D33" s="2" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="E33" s="3">
-        <x:v>45907.6703102199</x:v>
-      </x:c>
-      <x:c r="F33" s="2" t="s"/>
-      <x:c r="G33" s="2" t="s"/>
-      <x:c r="H33" s="2" t="s"/>
-      <x:c r="I33" s="2" t="s"/>
-      <x:c r="J33" s="2" t="s"/>
-      <x:c r="K33" s="2" t="s"/>
-      <x:c r="L33" s="2" t="s"/>
-      <x:c r="M33" s="2" t="s"/>
-      <x:c r="N33" s="2" t="s"/>
-      <x:c r="O33" s="2" t="s"/>
-      <x:c r="P33" s="2" t="s"/>
-      <x:c r="Q33" s="2" t="s"/>
-      <x:c r="R33" s="2" t="s"/>
-      <x:c r="S33" s="2" t="s"/>
-      <x:c r="T33" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS102_Tutorial-35288.xlsx
+++ b/downloaded_files/EECS102_Tutorial-35288.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -157,6 +157,15 @@
   </x:si>
   <x:si>
     <x:t>Abdelrahman tarek mohamed rabie abdelsalam elsiad abouelnour</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240097</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر أيمن محمد نجيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar ayman Mohamed neged</x:t>
   </x:si>
   <x:si>
     <x:t>1240098</x:t>
@@ -425,7 +434,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -725,7 +734,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T32"/>
+  <x:dimension ref="A1:T33"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1264,7 +1273,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6662009259</x:v>
+        <x:v>45933.5101764236</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1296,7 +1305,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45914.6092172801</x:v>
+        <x:v>45907.6662009259</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1328,7 +1337,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6646372685</x:v>
+        <x:v>45914.6092172801</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1360,7 +1369,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45914.6107353009</x:v>
+        <x:v>45907.6646372685</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1392,7 +1401,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6648360764</x:v>
+        <x:v>45914.6107353009</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1424,7 +1433,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6648425926</x:v>
+        <x:v>45907.6648360764</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1456,7 +1465,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45914.5434844097</x:v>
+        <x:v>45907.6648425926</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1488,7 +1497,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6646261227</x:v>
+        <x:v>45914.5434844097</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1520,7 +1529,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6658079861</x:v>
+        <x:v>45907.6646261227</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1552,7 +1561,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45914.5376066319</x:v>
+        <x:v>45907.6658079861</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1584,7 +1593,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6654758102</x:v>
+        <x:v>45914.5376066319</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1616,7 +1625,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45914.6110670949</x:v>
+        <x:v>45907.6654758102</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1648,7 +1657,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45914.6121292014</x:v>
+        <x:v>45914.6110670949</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1680,7 +1689,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45927.5052487269</x:v>
+        <x:v>45914.6121292014</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1712,7 +1721,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45914.5715863079</x:v>
+        <x:v>45927.5052487269</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1744,7 +1753,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6646291667</x:v>
+        <x:v>45914.5715863079</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1776,7 +1785,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6703102199</x:v>
+        <x:v>45907.6646291667</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1793,6 +1802,38 @@
       <x:c r="R32" s="2" t="s"/>
       <x:c r="S32" s="2" t="s"/>
       <x:c r="T32" s="2" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:20">
+      <x:c r="A33" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B33" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="D33" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="E33" s="3">
+        <x:v>45907.6703102199</x:v>
+      </x:c>
+      <x:c r="F33" s="2" t="s"/>
+      <x:c r="G33" s="2" t="s"/>
+      <x:c r="H33" s="2" t="s"/>
+      <x:c r="I33" s="2" t="s"/>
+      <x:c r="J33" s="2" t="s"/>
+      <x:c r="K33" s="2" t="s"/>
+      <x:c r="L33" s="2" t="s"/>
+      <x:c r="M33" s="2" t="s"/>
+      <x:c r="N33" s="2" t="s"/>
+      <x:c r="O33" s="2" t="s"/>
+      <x:c r="P33" s="2" t="s"/>
+      <x:c r="Q33" s="2" t="s"/>
+      <x:c r="R33" s="2" t="s"/>
+      <x:c r="S33" s="2" t="s"/>
+      <x:c r="T33" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
